--- a/数据.xlsx
+++ b/数据.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3333" uniqueCount="2514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3585" uniqueCount="2604">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -14608,6 +14608,366 @@
   </si>
   <si>
     <t>5126,4067,4028,4001,4072,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1007,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002,1002,1013,1013,1007,1007,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1021,1021,1002,2018,1023,1008,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002,2007,3030,2029,3002,2038,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1021,1002,3037,3041,3006,2035,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2029,3008,3048,3036,2007,2035,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3027,3030,4076,2046,1023,2035,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3010,3002,4060,3036,3033,3023,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3006,3007,4074,3039,3027,3023,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007,3003,4078,4079,3048,3023,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3041,3048,4066,4035,4076,3023,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5120,5001,4007,4047,4048,4072,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5122,4071,4030,4025,4072,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1008,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002,1002,1013,1013,1013,1005,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1021,1021,2002,2006,1023,1008,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3010,2029,2046,3006,2002,2035,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3041,3036,2007,2002,1021,2032,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3048,3033,3037,2033,1021,2036,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4007,4001,3010,2029,3030,2035,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4076,4071,3027,3002,3007,3026,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4074,4007,3048,3037,3003,3026,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4056,4035,3036,3027,3008,3026,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4078,4076,4071,4079,3041,3026,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5120,5001,4077,4026,4060,4072,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5122,4066,4017,4007,4072,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1009,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002,1002,1007,1007,1009,1009,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001,2003,1019,1019,1018,1008,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3004,2040,3005,1020,1010,1008,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3043,3028,2001,2003,1019,2036,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3043,3034,3027,2001,2003,2036,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4059,4003,3045,2001,1018,2036,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4062,4045,3034,2001,2043,3026,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4081,4047,4001,2040,2040,3026,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4058,4056,4048,3003,3004,3026,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4057,4046,4045,3028,3027,3026,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5117,5005,4048,4027,4047,4072,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5123,4067,4055,4003,4072,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002,1002,1007,1007,1005,1011,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2008,1003,1021,1021,1017,1008,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3006,2048,2047,1020,1018,1008,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3030,3028,2045,2033,2005,1008,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3037,3048,3003,2034,2004,2032,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4035,3033,3008,3008,1021,2032,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4049,4079,3030,3027,2007,2032,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4074,4076,3036,2048,1021,3026,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4078,4071,3006,3009,2008,3026,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4075,4046,3028,3047,2048,3026,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5121,5001,4067,4035,4047,4072,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5122,4025,4003,4067,4072,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1011,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1012,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001,1001,1004,1003,1006,1005,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002,1007,1001,2006,1018,1008,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3002,2048,1018,1018,1022,2039,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3041,2034,2044,2041,1020,2032,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3037,3042,3047,2047,2004,2039,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4035,3027,3036,3003,2048,2032,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4047,3037,3041,3002,2041,3026,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4046,4049,3042,2029,2048,3026,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4078,4062,3027,3033,3003,3026,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4066,4075,4079,3041,2048,3026,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5119,5004,4046,4060,4047,4072,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5125,4068,4028,4029,4072,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003,1010,1019,1019,1018,1008,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2045,2044,2031,1022,1019,2038,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3034,3028,2047,2001,1005,2028,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3032,3045,2048,1019,1018,2028,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4045,3027,3005,2034,1019,2028,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4047,3049,3043,3004,2001,3026,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4081,4003,4059,3031,2048,3026,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4049,4062,4058,4001,3005,3026,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4046,4045,4057,3045,3027,3026,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5117,5005,4067,4047,4048,4072,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5123,4080,4027,4003,4072,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002,1002,1011,1003,1010,1004,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001,1022,1020,2003,1018,1008,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2037,2043,2045,1010,1004,1008,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3045,2030,2047,2001,1020,1008,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3040,3034,3005,3009,2042,2036,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4045,3032,3028,2034,2043,2036,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4070,4052,4003,3003,1019,2036,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4081,4049,3003,3005,2040,3026,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4066,4048,4035,3048,2048,3026,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4051,4069,4045,4080,3028,3026,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5118,5005,4027,4047,4062,4072,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5126,4003,4067,4048,4072,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -19759,7 +20119,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21196,8 +21556,8 @@
   <dimension ref="A1:AF332"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E343" sqref="E343"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28744,11 +29104,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -29776,6 +30136,1182 @@
         <v>2513</v>
       </c>
       <c r="D78" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2515</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2516</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2517</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>49</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2518</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2519</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2520</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2521</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>49</v>
+      </c>
+      <c r="B88">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2523</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2524</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2525</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2526</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2528</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2529</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>51</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>51</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2531</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>51</v>
+      </c>
+      <c r="B98">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2533</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2534</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>51</v>
+      </c>
+      <c r="B100">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2536</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>51</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2537</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>51</v>
+      </c>
+      <c r="B103">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2539</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2542</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>53</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2544</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>53</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2545</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>53</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>53</v>
+      </c>
+      <c r="B111">
+        <v>6</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>53</v>
+      </c>
+      <c r="B112">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2548</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>53</v>
+      </c>
+      <c r="B113">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2549</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>53</v>
+      </c>
+      <c r="B114">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2550</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>53</v>
+      </c>
+      <c r="B115">
+        <v>10</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2551</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>53</v>
+      </c>
+      <c r="B116">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2552</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>53</v>
+      </c>
+      <c r="B117">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2553</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2554</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>63</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2556</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>63</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>63</v>
+      </c>
+      <c r="B123">
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2558</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>63</v>
+      </c>
+      <c r="B124">
+        <v>6</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2559</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>63</v>
+      </c>
+      <c r="B125">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2560</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>63</v>
+      </c>
+      <c r="B126">
+        <v>8</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>63</v>
+      </c>
+      <c r="B127">
+        <v>9</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>63</v>
+      </c>
+      <c r="B128">
+        <v>10</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2563</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>63</v>
+      </c>
+      <c r="B129">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2564</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>63</v>
+      </c>
+      <c r="B130">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2565</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2542</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>61</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>61</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>61</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>61</v>
+      </c>
+      <c r="B137">
+        <v>6</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2585</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>61</v>
+      </c>
+      <c r="B138">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>61</v>
+      </c>
+      <c r="B139">
+        <v>8</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2587</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>61</v>
+      </c>
+      <c r="B140">
+        <v>9</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>61</v>
+      </c>
+      <c r="B141">
+        <v>10</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>61</v>
+      </c>
+      <c r="B142">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>61</v>
+      </c>
+      <c r="B143">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2593</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>67</v>
+      </c>
+      <c r="B147">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>67</v>
+      </c>
+      <c r="B148">
+        <v>4</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2595</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>67</v>
+      </c>
+      <c r="B149">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>67</v>
+      </c>
+      <c r="B150">
+        <v>6</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2597</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>67</v>
+      </c>
+      <c r="B151">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2598</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>67</v>
+      </c>
+      <c r="B152">
+        <v>8</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>67</v>
+      </c>
+      <c r="B153">
+        <v>9</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>67</v>
+      </c>
+      <c r="B154">
+        <v>10</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2601</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>67</v>
+      </c>
+      <c r="B155">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
+        <v>67</v>
+      </c>
+      <c r="B156">
+        <v>12</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2603</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2569</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2570</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>75</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2571</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>75</v>
+      </c>
+      <c r="B161">
+        <v>4</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2572</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
+        <v>75</v>
+      </c>
+      <c r="B162">
+        <v>5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2573</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
+        <v>75</v>
+      </c>
+      <c r="B163">
+        <v>6</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2574</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A164" t="s">
+        <v>75</v>
+      </c>
+      <c r="B164">
+        <v>7</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2575</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>75</v>
+      </c>
+      <c r="B165">
+        <v>8</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2576</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>75</v>
+      </c>
+      <c r="B166">
+        <v>9</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>75</v>
+      </c>
+      <c r="B167">
+        <v>10</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
+        <v>75</v>
+      </c>
+      <c r="B168">
+        <v>11</v>
+      </c>
+      <c r="C168" t="s">
+        <v>2579</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>75</v>
+      </c>
+      <c r="B169">
+        <v>12</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2580</v>
+      </c>
+      <c r="D169" t="s">
         <v>1764</v>
       </c>
     </row>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="英雄-成长" sheetId="5" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="英雄-进阶" sheetId="7" r:id="rId5"/>
     <sheet name="副本" sheetId="3" r:id="rId6"/>
     <sheet name="章节" sheetId="4" r:id="rId7"/>
+    <sheet name="地图" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3585" uniqueCount="2604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4008" uniqueCount="2993">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -14969,13 +14970,1728 @@
   <si>
     <t>5126,4003,4067,4048,4072,</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军事博物馆</t>
+  </si>
+  <si>
+    <t>八角游乐园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军事博物馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>古城</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苹果园</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>八宝山</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玉泉路</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>五棵松</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万寿路</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公主坟</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>木樨地</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>南礼士路</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复兴门</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西单</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天安门西</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天安门东</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王府井</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>东单</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建国门</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>永安里</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国贸</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大望路</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四惠</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西直门</t>
+  </si>
+  <si>
+    <t>西直门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积水潭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓楼大街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安定门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雍和宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东直门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东四十条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝阳门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建国门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崇文门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和平门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣武门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长椿街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复兴门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阜成门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车公庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西钓鱼台</t>
+  </si>
+  <si>
+    <t>白堆子</t>
+  </si>
+  <si>
+    <t>南锣鼓巷</t>
+  </si>
+  <si>
+    <t>团结湖</t>
+  </si>
+  <si>
+    <t>田村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永定路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩济西街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西钓鱼台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白堆子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘家口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展览路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阜成门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南锣鼓巷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东四十条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人体育场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团结湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝阳公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石佛营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星火站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝阳体育中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平房村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东风站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管庄路口西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东坝商务区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼梓庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高辛庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天桥东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张自忠路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东坝中街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西苑</t>
+  </si>
+  <si>
+    <t>海淀黄庄</t>
+  </si>
+  <si>
+    <t>国家图书馆</t>
+  </si>
+  <si>
+    <t>角门西</t>
+  </si>
+  <si>
+    <t>天宫院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物医药基地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>义和庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄村火车站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄村西大街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清源路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枣园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高米店南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高米店北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西红门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公益西桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角门西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马家堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京南站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶然亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜市口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵境胡同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新街口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动物园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家图书馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏公村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海淀黄庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中关村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京大学东门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆明园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西苑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北宫门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安河桥北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋家庄站</t>
+  </si>
+  <si>
+    <t>宋家庄</t>
+  </si>
+  <si>
+    <t>蒲黄榆</t>
+  </si>
+  <si>
+    <t>惠新西街南口</t>
+  </si>
+  <si>
+    <t>大屯路东</t>
+  </si>
+  <si>
+    <t>立水桥</t>
+  </si>
+  <si>
+    <t>宋家庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘家窑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒲黄榆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天坛东门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁器口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯市口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张自忠路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北新桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和平里北街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和平西桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠新西街南口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠新西街北口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大屯路东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北苑路北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立水桥南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立水桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天通苑南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天通苑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天通苑北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慈寿寺</t>
+  </si>
+  <si>
+    <t>白石桥南</t>
+  </si>
+  <si>
+    <t>呼家楼</t>
+  </si>
+  <si>
+    <t>金台路</t>
+  </si>
+  <si>
+    <t>海淀五路居</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慈寿寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花园桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白石桥南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车公庄西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北海北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南锣鼓巷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东大桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼家楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金台路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十里堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青年路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>褡裢坡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄渠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资学院路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通州北关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通运门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北运河西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北运河东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郝家府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东夏园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潞城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双井</t>
+  </si>
+  <si>
+    <t>九龙山</t>
+  </si>
+  <si>
+    <t>北京西站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湾子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达官营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广安门内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎坊桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠市口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广渠门内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广渠门外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九龙山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大郊亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百子湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南楼梓庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐谷景区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垡头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦化厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱辛庄</t>
+  </si>
+  <si>
+    <t>育知路</t>
+  </si>
+  <si>
+    <t>平西府</t>
+  </si>
+  <si>
+    <t>回龙观东大街</t>
+  </si>
+  <si>
+    <t>霍营</t>
+  </si>
+  <si>
+    <t>育新</t>
+  </si>
+  <si>
+    <t>西小口</t>
+  </si>
+  <si>
+    <t>永泰庄</t>
+  </si>
+  <si>
+    <t>林萃桥</t>
+  </si>
+  <si>
+    <t>森林公园南门</t>
+  </si>
+  <si>
+    <t>奥林匹克公园</t>
+  </si>
+  <si>
+    <t>奥体中心</t>
+  </si>
+  <si>
+    <t>北土城</t>
+  </si>
+  <si>
+    <t>安华桥</t>
+  </si>
+  <si>
+    <t>安德里北街</t>
+  </si>
+  <si>
+    <t>什刹海</t>
+  </si>
+  <si>
+    <t>郭公庄</t>
+  </si>
+  <si>
+    <t>丰台科技园</t>
+  </si>
+  <si>
+    <t>科怡路</t>
+  </si>
+  <si>
+    <t>丰台南路</t>
+  </si>
+  <si>
+    <t>丰台东大街</t>
+  </si>
+  <si>
+    <t>七里庄</t>
+  </si>
+  <si>
+    <t>六里桥</t>
+  </si>
+  <si>
+    <t>六里桥东</t>
+  </si>
+  <si>
+    <t>巴沟</t>
+  </si>
+  <si>
+    <t>苏州街</t>
+  </si>
+  <si>
+    <t>知春里</t>
+  </si>
+  <si>
+    <t>知春路</t>
+  </si>
+  <si>
+    <t>西土城</t>
+  </si>
+  <si>
+    <t>牡丹园</t>
+  </si>
+  <si>
+    <t>健德门</t>
+  </si>
+  <si>
+    <t>安贞门</t>
+  </si>
+  <si>
+    <t>芍药居</t>
+  </si>
+  <si>
+    <t>太阳宫</t>
+  </si>
+  <si>
+    <t>三元桥</t>
+  </si>
+  <si>
+    <t>亮马桥</t>
+  </si>
+  <si>
+    <t>农业展览馆</t>
+  </si>
+  <si>
+    <t>金台夕照</t>
+  </si>
+  <si>
+    <t>国贸</t>
+  </si>
+  <si>
+    <t>劲松</t>
+  </si>
+  <si>
+    <t>潘家园</t>
+  </si>
+  <si>
+    <t>十里河</t>
+  </si>
+  <si>
+    <t>分钟寺</t>
+  </si>
+  <si>
+    <t>成寿寺</t>
+  </si>
+  <si>
+    <t>石榴庄</t>
+  </si>
+  <si>
+    <t>大红门</t>
+  </si>
+  <si>
+    <t>角门东</t>
+  </si>
+  <si>
+    <t>草桥</t>
+  </si>
+  <si>
+    <t>纪家庙</t>
+  </si>
+  <si>
+    <t>首经贸</t>
+  </si>
+  <si>
+    <t>丰台站</t>
+  </si>
+  <si>
+    <t>泥洼</t>
+  </si>
+  <si>
+    <t>西局</t>
+  </si>
+  <si>
+    <t>莲花桥</t>
+  </si>
+  <si>
+    <t>公主坟</t>
+  </si>
+  <si>
+    <t>车道沟</t>
+  </si>
+  <si>
+    <t>长春桥</t>
+  </si>
+  <si>
+    <t>火器营</t>
+  </si>
+  <si>
+    <t>明光桥西</t>
+  </si>
+  <si>
+    <t>大钟寺</t>
+  </si>
+  <si>
+    <t>五道口</t>
+  </si>
+  <si>
+    <t>上地</t>
+  </si>
+  <si>
+    <t>清河站</t>
+  </si>
+  <si>
+    <t>西二旗</t>
+  </si>
+  <si>
+    <t>龙泽</t>
+  </si>
+  <si>
+    <t>回龙观</t>
+  </si>
+  <si>
+    <t>建材城东路</t>
+  </si>
+  <si>
+    <t>北苑</t>
+  </si>
+  <si>
+    <t>来广营西</t>
+  </si>
+  <si>
+    <t>望京西</t>
+  </si>
+  <si>
+    <t>望和桥</t>
+  </si>
+  <si>
+    <t>光熙门</t>
+  </si>
+  <si>
+    <t>柳芳</t>
+  </si>
+  <si>
+    <t>张郭庄</t>
+  </si>
+  <si>
+    <t>园博园</t>
+  </si>
+  <si>
+    <t>大瓦窑</t>
+  </si>
+  <si>
+    <t>郭庄子</t>
+  </si>
+  <si>
+    <t>大井</t>
+  </si>
+  <si>
+    <t>永定门外</t>
+  </si>
+  <si>
+    <t>景泰</t>
+  </si>
+  <si>
+    <t>方庄</t>
+  </si>
+  <si>
+    <t>北工大西门</t>
+  </si>
+  <si>
+    <t>大望路</t>
+  </si>
+  <si>
+    <t>枣营</t>
+  </si>
+  <si>
+    <t>东风北桥</t>
+  </si>
+  <si>
+    <t>将台</t>
+  </si>
+  <si>
+    <t>望京南</t>
+  </si>
+  <si>
+    <t>阜通</t>
+  </si>
+  <si>
+    <t>望京</t>
+  </si>
+  <si>
+    <t>东湖渠</t>
+  </si>
+  <si>
+    <t>来广营</t>
+  </si>
+  <si>
+    <t>善各庄</t>
+  </si>
+  <si>
+    <t>俸伯</t>
+  </si>
+  <si>
+    <t>顺义</t>
+  </si>
+  <si>
+    <t>石门</t>
+  </si>
+  <si>
+    <t>南法信</t>
+  </si>
+  <si>
+    <t>后沙峪</t>
+  </si>
+  <si>
+    <t>花梨坎</t>
+  </si>
+  <si>
+    <t>国展</t>
+  </si>
+  <si>
+    <t>孙河</t>
+  </si>
+  <si>
+    <t>马泉营</t>
+  </si>
+  <si>
+    <t>崔各庄</t>
+  </si>
+  <si>
+    <t>望京东</t>
+  </si>
+  <si>
+    <t>关庄</t>
+  </si>
+  <si>
+    <t>安立路</t>
+  </si>
+  <si>
+    <t>北沙滩</t>
+  </si>
+  <si>
+    <t>六道口</t>
+  </si>
+  <si>
+    <t>清华东路西口</t>
+  </si>
+  <si>
+    <t>农大南路</t>
+  </si>
+  <si>
+    <t>马连洼</t>
+  </si>
+  <si>
+    <t>西北旺</t>
+  </si>
+  <si>
+    <t>永丰南</t>
+  </si>
+  <si>
+    <t>永丰</t>
+  </si>
+  <si>
+    <t>屯佃</t>
+  </si>
+  <si>
+    <t>稻香湖路</t>
+  </si>
+  <si>
+    <t>温阳路</t>
+  </si>
+  <si>
+    <t>北安河</t>
+  </si>
+  <si>
+    <t>中国美术馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天桥</t>
+  </si>
+  <si>
+    <t>木樨园</t>
+  </si>
+  <si>
+    <t>海户屯</t>
+  </si>
+  <si>
+    <t>大红门南</t>
+  </si>
+  <si>
+    <t>和义</t>
+  </si>
+  <si>
+    <t>东高地</t>
+  </si>
+  <si>
+    <t>火箭万源</t>
+  </si>
+  <si>
+    <t>五福堂</t>
+  </si>
+  <si>
+    <t>德茂</t>
+  </si>
+  <si>
+    <t>瀛海</t>
+  </si>
+  <si>
+    <t>珠市口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草桥站</t>
+  </si>
+  <si>
+    <t>磁各庄站</t>
+  </si>
+  <si>
+    <t>新机场北航站楼站</t>
+  </si>
+  <si>
+    <t>四惠</t>
+  </si>
+  <si>
+    <t>四惠东</t>
+  </si>
+  <si>
+    <t>高碑店</t>
+  </si>
+  <si>
+    <t>传媒大学</t>
+  </si>
+  <si>
+    <t>双桥</t>
+  </si>
+  <si>
+    <t>管庄</t>
+  </si>
+  <si>
+    <t>八里桥</t>
+  </si>
+  <si>
+    <t>通州北苑</t>
+  </si>
+  <si>
+    <t>果园</t>
+  </si>
+  <si>
+    <t>九棵树</t>
+  </si>
+  <si>
+    <t>梨园</t>
+  </si>
+  <si>
+    <t>临河里</t>
+  </si>
+  <si>
+    <t>土桥</t>
+  </si>
+  <si>
+    <t>昌平西山口</t>
+  </si>
+  <si>
+    <t>十三陵景区</t>
+  </si>
+  <si>
+    <t>昌平</t>
+  </si>
+  <si>
+    <t>昌平东关</t>
+  </si>
+  <si>
+    <t>北邵洼</t>
+  </si>
+  <si>
+    <t>南邵</t>
+  </si>
+  <si>
+    <t>沙河高教园</t>
+  </si>
+  <si>
+    <t>沙河</t>
+  </si>
+  <si>
+    <t>巩华城</t>
+  </si>
+  <si>
+    <t>生命科学园</t>
+  </si>
+  <si>
+    <t>肖村站</t>
+  </si>
+  <si>
+    <t>小红门站</t>
+  </si>
+  <si>
+    <t>旧宫站</t>
+  </si>
+  <si>
+    <t>亦庄桥站</t>
+  </si>
+  <si>
+    <t>亦庄文化园站</t>
+  </si>
+  <si>
+    <t>万源街站</t>
+  </si>
+  <si>
+    <t>荣京东街站</t>
+  </si>
+  <si>
+    <t>荣昌东街站</t>
+  </si>
+  <si>
+    <t>同济南路站</t>
+  </si>
+  <si>
+    <t>经海路站</t>
+  </si>
+  <si>
+    <t>次渠南站</t>
+  </si>
+  <si>
+    <t>次渠站</t>
+  </si>
+  <si>
+    <t>亦庄火车站</t>
+  </si>
+  <si>
+    <t>大葆台</t>
+  </si>
+  <si>
+    <t>稻田</t>
+  </si>
+  <si>
+    <t>长阳</t>
+  </si>
+  <si>
+    <t>篱笆房</t>
+  </si>
+  <si>
+    <t>广阳城</t>
+  </si>
+  <si>
+    <t>良乡大学城北</t>
+  </si>
+  <si>
+    <t>良乡大学城</t>
+  </si>
+  <si>
+    <t>良乡大学城西</t>
+  </si>
+  <si>
+    <t>良乡南关</t>
+  </si>
+  <si>
+    <t>苏庄</t>
+  </si>
+  <si>
+    <t>阎村东</t>
+  </si>
+  <si>
+    <t>T3航站楼</t>
+  </si>
+  <si>
+    <t>T2航站楼</t>
+  </si>
+  <si>
+    <t>金安桥站</t>
+  </si>
+  <si>
+    <t>四道桥站</t>
+  </si>
+  <si>
+    <t>桥户营站</t>
+  </si>
+  <si>
+    <t>上岸站</t>
+  </si>
+  <si>
+    <t>栗园庄站</t>
+  </si>
+  <si>
+    <t>小园站</t>
+  </si>
+  <si>
+    <t>石厂站</t>
+  </si>
+  <si>
+    <t>燕山</t>
+  </si>
+  <si>
+    <t>房山城关</t>
+  </si>
+  <si>
+    <t>饶乐府</t>
+  </si>
+  <si>
+    <t>马各庄</t>
+  </si>
+  <si>
+    <t>大石河东</t>
+  </si>
+  <si>
+    <t>星城</t>
+  </si>
+  <si>
+    <t>阎村</t>
+  </si>
+  <si>
+    <t>紫草坞</t>
+  </si>
+  <si>
+    <t>颐和园西门站</t>
+  </si>
+  <si>
+    <t>茶棚站</t>
+  </si>
+  <si>
+    <t>万安站</t>
+  </si>
+  <si>
+    <t>植物园站</t>
+  </si>
+  <si>
+    <t>香山站</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15044,6 +16760,33 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -15053,10 +16796,58 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE9E9E9"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDFDFDF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE9E9E9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE9E9E9"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDFDFDF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE9E9E9"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDFDFDF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDFDFDF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDFDFDF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDFDFDF"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -15066,7 +16857,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -15091,6 +16882,20 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -29106,7 +30911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C156" sqref="C156"/>
     </sheetView>
@@ -35123,4 +36928,4678 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I445"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C447" sqref="C447"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="15">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2610</v>
+      </c>
+      <c r="C3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="15">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2608</v>
+      </c>
+      <c r="C4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2612</v>
+      </c>
+      <c r="C5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2613</v>
+      </c>
+      <c r="C6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="15">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C10">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C13">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2620</v>
+      </c>
+      <c r="C14">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="15">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C16">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="15">
+        <v>115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C17">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
+        <v>116</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C18">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="15">
+        <v>117</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C19">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="15">
+        <v>118</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2626</v>
+      </c>
+      <c r="C20">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
+        <v>119</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2627</v>
+      </c>
+      <c r="C21">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="15">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C22">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
+        <v>121</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="15">
+        <v>200</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="16">
+        <v>201</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C26">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="15">
+        <v>202</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C27">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="16">
+        <v>203</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C28">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="15">
+        <v>204</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C29">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="16">
+        <v>205</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C30">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="15">
+        <v>206</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C31">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="16">
+        <v>207</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C32">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="15">
+        <v>208</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C33">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="16">
+        <v>209</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C34">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="15">
+        <v>210</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="16">
+        <v>211</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C36">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="15">
+        <v>212</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C37">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="16">
+        <v>213</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C38">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="15">
+        <v>214</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C39">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="16">
+        <v>215</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2646</v>
+      </c>
+      <c r="C40">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="15">
+        <v>216</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C41">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="16">
+        <v>217</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="16">
+        <v>300</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C44">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="16">
+        <v>301</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C45">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="16">
+        <v>302</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C46">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="16">
+        <v>303</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C47">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="16">
+        <v>304</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>2676</v>
+      </c>
+      <c r="C48">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="16">
+        <v>305</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C49">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="16">
+        <v>306</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C50">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="16">
+        <v>307</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C51">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="16">
+        <v>308</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C52">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="16">
+        <v>309</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C53">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="16">
+        <v>310</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C54">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="16">
+        <v>311</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C55">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="16">
+        <v>312</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C56">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="16">
+        <v>313</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2664</v>
+      </c>
+      <c r="C57">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="16">
+        <v>314</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2665</v>
+      </c>
+      <c r="C58">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="16">
+        <v>315</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2666</v>
+      </c>
+      <c r="C59">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="16">
+        <v>316</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C60">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="16">
+        <v>317</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2668</v>
+      </c>
+      <c r="C61">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="16">
+        <v>318</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2669</v>
+      </c>
+      <c r="C62">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="16">
+        <v>319</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2670</v>
+      </c>
+      <c r="C63">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="16">
+        <v>320</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2678</v>
+      </c>
+      <c r="C64">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="16">
+        <v>321</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2671</v>
+      </c>
+      <c r="C65">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="16">
+        <v>322</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C66">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="16">
+        <v>323</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C67">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="16">
+        <v>324</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2674</v>
+      </c>
+      <c r="C68">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="16">
+        <v>325</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2675</v>
+      </c>
+      <c r="C69">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="16">
+        <v>400</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C71">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="16">
+        <v>401</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2684</v>
+      </c>
+      <c r="C72">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="16">
+        <v>402</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C73">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="16">
+        <v>403</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C74">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="16">
+        <v>404</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C75">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="16">
+        <v>405</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C76">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="16">
+        <v>406</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2689</v>
+      </c>
+      <c r="C77">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="16">
+        <v>407</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2690</v>
+      </c>
+      <c r="C78">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" s="16">
+        <v>408</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C79">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" s="16">
+        <v>409</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2692</v>
+      </c>
+      <c r="C80">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" s="16">
+        <v>410</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2693</v>
+      </c>
+      <c r="C81">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" s="16">
+        <v>411</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C82">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" s="16">
+        <v>412</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2695</v>
+      </c>
+      <c r="C83">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" s="16">
+        <v>413</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2696</v>
+      </c>
+      <c r="C84">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" s="16">
+        <v>414</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C85">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" s="16">
+        <v>415</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2698</v>
+      </c>
+      <c r="C86">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" s="16">
+        <v>416</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2699</v>
+      </c>
+      <c r="C87">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" s="16">
+        <v>417</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C88">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" s="16">
+        <v>418</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C89">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90" s="16">
+        <v>419</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C90">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91" s="16">
+        <v>420</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C91">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92" s="16">
+        <v>421</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C92">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93" s="16">
+        <v>422</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C93">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94" s="16">
+        <v>423</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C94">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95" s="16">
+        <v>424</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C95">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96" s="16">
+        <v>425</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C96">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" s="16">
+        <v>426</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C97">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" s="16">
+        <v>427</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C98">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" s="16">
+        <v>428</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C99">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" s="16">
+        <v>429</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C100">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101" s="16">
+        <v>430</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C101">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102" s="16">
+        <v>431</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C102">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103" s="16">
+        <v>432</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C103">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104" s="16">
+        <v>433</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C104">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105" s="16">
+        <v>434</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C105">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107" s="16">
+        <v>500</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C107">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108" s="16">
+        <v>501</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C108">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109" s="16">
+        <v>502</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C109">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110" s="16">
+        <v>503</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C110">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111" s="16">
+        <v>504</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C111">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112" s="16">
+        <v>505</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C112">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113" s="16">
+        <v>506</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C113">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114" s="16">
+        <v>507</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C114">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115" s="16">
+        <v>508</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C115">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116" s="16">
+        <v>509</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C116">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A117" s="16">
+        <v>510</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C117">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A118" s="16">
+        <v>511</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C118">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A119" s="16">
+        <v>512</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C119">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A120" s="16">
+        <v>513</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C120">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A121" s="16">
+        <v>514</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C121">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A122" s="16">
+        <v>515</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C122">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A123" s="16">
+        <v>516</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C123">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A124" s="16">
+        <v>517</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C124">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A125" s="16">
+        <v>518</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C125">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A126" s="16">
+        <v>519</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C126">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A127" s="16">
+        <v>520</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2740</v>
+      </c>
+      <c r="C127">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A128" s="16">
+        <v>521</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2741</v>
+      </c>
+      <c r="C128">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A129" s="16">
+        <v>522</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C129">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A131" s="16">
+        <v>600</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2747</v>
+      </c>
+      <c r="C131">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A132" s="16">
+        <v>601</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2748</v>
+      </c>
+      <c r="C132">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A133" s="16">
+        <v>602</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2749</v>
+      </c>
+      <c r="C133">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A134" s="16">
+        <v>603</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C134">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A135" s="16">
+        <v>604</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2751</v>
+      </c>
+      <c r="C135">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A136" s="16">
+        <v>605</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C136">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A137" s="16">
+        <v>606</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2703</v>
+      </c>
+      <c r="C137">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A138" s="16">
+        <v>607</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2752</v>
+      </c>
+      <c r="C138">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A139" s="16">
+        <v>608</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C139">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A140" s="16">
+        <v>609</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C140">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A141" s="16">
+        <v>610</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C141">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A142" s="16">
+        <v>611</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C142">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A143" s="16">
+        <v>612</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C143">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A144" s="16">
+        <v>613</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C144">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A145" s="16">
+        <v>614</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2757</v>
+      </c>
+      <c r="C145">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A146" s="16">
+        <v>615</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2758</v>
+      </c>
+      <c r="C146">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A147" s="16">
+        <v>616</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C147">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A148" s="16">
+        <v>617</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2760</v>
+      </c>
+      <c r="C148">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A149" s="16">
+        <v>618</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2761</v>
+      </c>
+      <c r="C149">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A150" s="16">
+        <v>619</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2762</v>
+      </c>
+      <c r="C150">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A151" s="16">
+        <v>620</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C151">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A152" s="16">
+        <v>621</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2764</v>
+      </c>
+      <c r="C152">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A153" s="16">
+        <v>622</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2765</v>
+      </c>
+      <c r="C153">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A154" s="16">
+        <v>623</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C154">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A155" s="16">
+        <v>624</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2767</v>
+      </c>
+      <c r="C155">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A156" s="16">
+        <v>625</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2768</v>
+      </c>
+      <c r="C156">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A157" s="16">
+        <v>626</v>
+      </c>
+      <c r="B157" t="s">
+        <v>2769</v>
+      </c>
+      <c r="C157">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A158" s="16">
+        <v>627</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2770</v>
+      </c>
+      <c r="C158">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A160" s="16">
+        <v>700</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2773</v>
+      </c>
+      <c r="C160">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A161" s="16">
+        <v>701</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C161">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A162" s="16">
+        <v>702</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C162">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A163" s="16">
+        <v>703</v>
+      </c>
+      <c r="B163" t="s">
+        <v>2776</v>
+      </c>
+      <c r="C163">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A164" s="16">
+        <v>704</v>
+      </c>
+      <c r="B164" t="s">
+        <v>2699</v>
+      </c>
+      <c r="C164">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A165" s="16">
+        <v>705</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C165">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A166" s="16">
+        <v>706</v>
+      </c>
+      <c r="B166" t="s">
+        <v>2778</v>
+      </c>
+      <c r="C166">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A167" s="16">
+        <v>707</v>
+      </c>
+      <c r="B167" t="s">
+        <v>2779</v>
+      </c>
+      <c r="C167">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A168" s="16">
+        <v>708</v>
+      </c>
+      <c r="B168" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C168">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A169" s="16">
+        <v>709</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C169">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A170" s="16">
+        <v>710</v>
+      </c>
+      <c r="B170" t="s">
+        <v>2781</v>
+      </c>
+      <c r="C170">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A171" s="16">
+        <v>711</v>
+      </c>
+      <c r="B171" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C171">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A172" s="16">
+        <v>712</v>
+      </c>
+      <c r="B172" t="s">
+        <v>2783</v>
+      </c>
+      <c r="C172">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A173" s="16">
+        <v>713</v>
+      </c>
+      <c r="B173" t="s">
+        <v>2784</v>
+      </c>
+      <c r="C173">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A174" s="16">
+        <v>714</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C174">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A175" s="16">
+        <v>715</v>
+      </c>
+      <c r="B175" t="s">
+        <v>2786</v>
+      </c>
+      <c r="C175">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A176" s="16">
+        <v>716</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2787</v>
+      </c>
+      <c r="C176">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A177" s="16">
+        <v>717</v>
+      </c>
+      <c r="B177" t="s">
+        <v>2788</v>
+      </c>
+      <c r="C177">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A178" s="16">
+        <v>718</v>
+      </c>
+      <c r="B178" t="s">
+        <v>2789</v>
+      </c>
+      <c r="C178">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A179" s="16">
+        <v>719</v>
+      </c>
+      <c r="B179" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C179">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A180" s="16">
+        <v>720</v>
+      </c>
+      <c r="B180" t="s">
+        <v>2791</v>
+      </c>
+      <c r="C180">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A182" s="16">
+        <v>800</v>
+      </c>
+      <c r="B182" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C182">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A183" s="16">
+        <v>801</v>
+      </c>
+      <c r="B183" t="s">
+        <v>2793</v>
+      </c>
+      <c r="C183">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A184" s="16">
+        <v>802</v>
+      </c>
+      <c r="B184" t="s">
+        <v>2794</v>
+      </c>
+      <c r="C184">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A185" s="16">
+        <v>803</v>
+      </c>
+      <c r="B185" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C185">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A186" s="16">
+        <v>804</v>
+      </c>
+      <c r="B186" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C186">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A187" s="16">
+        <v>805</v>
+      </c>
+      <c r="B187" t="s">
+        <v>2797</v>
+      </c>
+      <c r="C187">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A188" s="16">
+        <v>806</v>
+      </c>
+      <c r="B188" t="s">
+        <v>2798</v>
+      </c>
+      <c r="C188">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A189" s="16">
+        <v>807</v>
+      </c>
+      <c r="B189" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C189">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A190" s="16">
+        <v>808</v>
+      </c>
+      <c r="B190" t="s">
+        <v>2800</v>
+      </c>
+      <c r="C190">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A191" s="16">
+        <v>809</v>
+      </c>
+      <c r="B191" t="s">
+        <v>2801</v>
+      </c>
+      <c r="C191">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A192" s="16">
+        <v>810</v>
+      </c>
+      <c r="B192" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C192">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A193" s="16">
+        <v>811</v>
+      </c>
+      <c r="B193" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C193">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A194" s="16">
+        <v>812</v>
+      </c>
+      <c r="B194" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C194">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A195" s="16">
+        <v>813</v>
+      </c>
+      <c r="B195" t="s">
+        <v>2805</v>
+      </c>
+      <c r="C195">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A196" s="16">
+        <v>814</v>
+      </c>
+      <c r="B196" t="s">
+        <v>2806</v>
+      </c>
+      <c r="C196">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A197" s="16">
+        <v>815</v>
+      </c>
+      <c r="B197" t="s">
+        <v>725</v>
+      </c>
+      <c r="C197">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A198" s="16">
+        <v>816</v>
+      </c>
+      <c r="B198" t="s">
+        <v>2807</v>
+      </c>
+      <c r="C198">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A199" s="16">
+        <v>817</v>
+      </c>
+      <c r="B199" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C199">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A200" s="16">
+        <v>818</v>
+      </c>
+      <c r="B200" t="s">
+        <v>2909</v>
+      </c>
+      <c r="C200">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A202" s="16">
+        <v>900</v>
+      </c>
+      <c r="B202" t="s">
+        <v>2808</v>
+      </c>
+      <c r="C202">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A203" s="16">
+        <v>901</v>
+      </c>
+      <c r="B203" t="s">
+        <v>2809</v>
+      </c>
+      <c r="C203">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A204" s="16">
+        <v>902</v>
+      </c>
+      <c r="B204" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C204">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A205" s="16">
+        <v>903</v>
+      </c>
+      <c r="B205" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C205">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A206" s="16">
+        <v>904</v>
+      </c>
+      <c r="B206" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C206">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A207" s="16">
+        <v>905</v>
+      </c>
+      <c r="B207" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C207">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A208" s="16">
+        <v>906</v>
+      </c>
+      <c r="B208" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C208">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A209" s="16">
+        <v>907</v>
+      </c>
+      <c r="B209" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C209">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A210" s="16">
+        <v>908</v>
+      </c>
+      <c r="B210" t="s">
+        <v>361</v>
+      </c>
+      <c r="C210">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A211" s="16">
+        <v>909</v>
+      </c>
+      <c r="B211" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C211">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A212" s="16">
+        <v>910</v>
+      </c>
+      <c r="B212" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C212">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A213" s="16">
+        <v>911</v>
+      </c>
+      <c r="B213" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C213">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A214" s="16">
+        <v>912</v>
+      </c>
+      <c r="B214" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C214">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A216" s="16">
+        <v>1000</v>
+      </c>
+      <c r="B216" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C216">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A217" s="16">
+        <v>1001</v>
+      </c>
+      <c r="B217" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C217">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A218" s="16">
+        <v>1002</v>
+      </c>
+      <c r="B218" t="s">
+        <v>2680</v>
+      </c>
+      <c r="C218">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A219" s="16">
+        <v>1003</v>
+      </c>
+      <c r="B219" t="s">
+        <v>2818</v>
+      </c>
+      <c r="C219">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A220" s="16">
+        <v>1004</v>
+      </c>
+      <c r="B220" t="s">
+        <v>2819</v>
+      </c>
+      <c r="C220">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A221" s="16">
+        <v>1005</v>
+      </c>
+      <c r="B221" t="s">
+        <v>2820</v>
+      </c>
+      <c r="C221">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A222" s="16">
+        <v>1006</v>
+      </c>
+      <c r="B222" t="s">
+        <v>2821</v>
+      </c>
+      <c r="C222">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A223" s="16">
+        <v>1007</v>
+      </c>
+      <c r="B223" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C223">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A224" s="16">
+        <v>1008</v>
+      </c>
+      <c r="B224" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C224">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A225" s="16">
+        <v>1009</v>
+      </c>
+      <c r="B225" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C225">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A226" s="16">
+        <v>1010</v>
+      </c>
+      <c r="B226" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C226">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A227" s="16">
+        <v>1011</v>
+      </c>
+      <c r="B227" t="s">
+        <v>2824</v>
+      </c>
+      <c r="C227">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A228" s="16">
+        <v>1012</v>
+      </c>
+      <c r="B228" t="s">
+        <v>2825</v>
+      </c>
+      <c r="C228">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A229" s="16">
+        <v>1013</v>
+      </c>
+      <c r="B229" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C229">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A230" s="16">
+        <v>1014</v>
+      </c>
+      <c r="B230" t="s">
+        <v>2827</v>
+      </c>
+      <c r="C230">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A231" s="16">
+        <v>1015</v>
+      </c>
+      <c r="B231" t="s">
+        <v>2828</v>
+      </c>
+      <c r="C231">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A232" s="16">
+        <v>1016</v>
+      </c>
+      <c r="B232" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C232">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A233" s="16">
+        <v>1017</v>
+      </c>
+      <c r="B233" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C233">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A234" s="16">
+        <v>1018</v>
+      </c>
+      <c r="B234" t="s">
+        <v>2829</v>
+      </c>
+      <c r="C234">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A235" s="16">
+        <v>1019</v>
+      </c>
+      <c r="B235" t="s">
+        <v>2830</v>
+      </c>
+      <c r="C235">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A236" s="16">
+        <v>1020</v>
+      </c>
+      <c r="B236" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C236">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A237" s="16">
+        <v>1021</v>
+      </c>
+      <c r="B237" t="s">
+        <v>2831</v>
+      </c>
+      <c r="C237">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A238" s="16">
+        <v>1022</v>
+      </c>
+      <c r="B238" t="s">
+        <v>2832</v>
+      </c>
+      <c r="C238">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A239" s="16">
+        <v>1023</v>
+      </c>
+      <c r="B239" t="s">
+        <v>2833</v>
+      </c>
+      <c r="C239">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A240" s="16">
+        <v>1024</v>
+      </c>
+      <c r="B240" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C240">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A241" s="16">
+        <v>1025</v>
+      </c>
+      <c r="B241" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C241">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A242" s="16">
+        <v>1026</v>
+      </c>
+      <c r="B242" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C242">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A243" s="16">
+        <v>1027</v>
+      </c>
+      <c r="B243" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C243">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A244" s="16">
+        <v>1028</v>
+      </c>
+      <c r="B244" t="s">
+        <v>2837</v>
+      </c>
+      <c r="C244">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A245" s="16">
+        <v>1029</v>
+      </c>
+      <c r="B245" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C245">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A246" s="16">
+        <v>1030</v>
+      </c>
+      <c r="B246" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C246">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A247" s="16">
+        <v>1031</v>
+      </c>
+      <c r="B247" t="s">
+        <v>2839</v>
+      </c>
+      <c r="C247">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A248" s="16">
+        <v>1032</v>
+      </c>
+      <c r="B248" t="s">
+        <v>2840</v>
+      </c>
+      <c r="C248">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A249" s="16">
+        <v>1033</v>
+      </c>
+      <c r="B249" t="s">
+        <v>2841</v>
+      </c>
+      <c r="C249">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A250" s="16">
+        <v>1034</v>
+      </c>
+      <c r="B250" t="s">
+        <v>2842</v>
+      </c>
+      <c r="C250">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A251" s="16">
+        <v>1035</v>
+      </c>
+      <c r="B251" t="s">
+        <v>2843</v>
+      </c>
+      <c r="C251">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A252" s="16">
+        <v>1036</v>
+      </c>
+      <c r="B252" t="s">
+        <v>2844</v>
+      </c>
+      <c r="C252">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A253" s="16">
+        <v>1037</v>
+      </c>
+      <c r="B253" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C253">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A254" s="16">
+        <v>1038</v>
+      </c>
+      <c r="B254" t="s">
+        <v>2845</v>
+      </c>
+      <c r="C254">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A255" s="16">
+        <v>1039</v>
+      </c>
+      <c r="B255" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C255">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A256" s="16">
+        <v>1040</v>
+      </c>
+      <c r="B256" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C256">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A257" s="16">
+        <v>1041</v>
+      </c>
+      <c r="B257" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C257">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A258" s="16">
+        <v>1042</v>
+      </c>
+      <c r="B258" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C258">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A259" s="16">
+        <v>1043</v>
+      </c>
+      <c r="B259" t="s">
+        <v>2848</v>
+      </c>
+      <c r="C259">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A260" s="16">
+        <v>1044</v>
+      </c>
+      <c r="B260" t="s">
+        <v>2849</v>
+      </c>
+      <c r="C260">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A262" s="16">
+        <v>1100</v>
+      </c>
+      <c r="B262" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C262">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A263" s="16">
+        <v>1101</v>
+      </c>
+      <c r="B263" t="s">
+        <v>2850</v>
+      </c>
+      <c r="C263">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A264" s="16">
+        <v>1102</v>
+      </c>
+      <c r="B264" t="s">
+        <v>2851</v>
+      </c>
+      <c r="C264">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A265" s="16">
+        <v>1103</v>
+      </c>
+      <c r="B265" t="s">
+        <v>2819</v>
+      </c>
+      <c r="C265">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A266" s="16">
+        <v>1104</v>
+      </c>
+      <c r="B266" t="s">
+        <v>2852</v>
+      </c>
+      <c r="C266">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A267" s="16">
+        <v>1105</v>
+      </c>
+      <c r="B267" t="s">
+        <v>2853</v>
+      </c>
+      <c r="C267">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A268" s="16">
+        <v>1106</v>
+      </c>
+      <c r="B268" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C268">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A269" s="16">
+        <v>1107</v>
+      </c>
+      <c r="B269" t="s">
+        <v>2855</v>
+      </c>
+      <c r="C269">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A270" s="16">
+        <v>1108</v>
+      </c>
+      <c r="B270" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C270">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A271" s="16">
+        <v>1109</v>
+      </c>
+      <c r="B271" t="s">
+        <v>2857</v>
+      </c>
+      <c r="C271">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A272" s="16">
+        <v>1110</v>
+      </c>
+      <c r="B272" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C272">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A273" s="16">
+        <v>1111</v>
+      </c>
+      <c r="B273" t="s">
+        <v>2858</v>
+      </c>
+      <c r="C273">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A274" s="16">
+        <v>1112</v>
+      </c>
+      <c r="B274" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C274">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A275" s="16">
+        <v>1113</v>
+      </c>
+      <c r="B275" t="s">
+        <v>2859</v>
+      </c>
+      <c r="C275">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A276" s="16">
+        <v>1114</v>
+      </c>
+      <c r="B276" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C276">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A277" s="16">
+        <v>1115</v>
+      </c>
+      <c r="B277" t="s">
+        <v>2861</v>
+      </c>
+      <c r="C277">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A278" s="16">
+        <v>1116</v>
+      </c>
+      <c r="B278" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C278">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A279" s="16">
+        <v>1117</v>
+      </c>
+      <c r="B279" t="s">
+        <v>2824</v>
+      </c>
+      <c r="C279">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A280" s="16">
+        <v>1118</v>
+      </c>
+      <c r="B280" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C280">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A281" s="16">
+        <v>1119</v>
+      </c>
+      <c r="B281" t="s">
+        <v>2864</v>
+      </c>
+      <c r="C281">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A282" s="16">
+        <v>1120</v>
+      </c>
+      <c r="B282" t="s">
+        <v>728</v>
+      </c>
+      <c r="C282">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A284" s="16">
+        <v>1200</v>
+      </c>
+      <c r="B284" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C284">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A285" s="16">
+        <v>1201</v>
+      </c>
+      <c r="B285" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C285">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A286" s="16">
+        <v>1202</v>
+      </c>
+      <c r="B286" t="s">
+        <v>2867</v>
+      </c>
+      <c r="C286">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A287" s="16">
+        <v>1203</v>
+      </c>
+      <c r="B287" t="s">
+        <v>2868</v>
+      </c>
+      <c r="C287">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A288" s="16">
+        <v>1204</v>
+      </c>
+      <c r="B288" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C288">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A289" s="16">
+        <v>1205</v>
+      </c>
+      <c r="B289" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C289">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A290" s="16">
+        <v>1206</v>
+      </c>
+      <c r="B290" t="s">
+        <v>2844</v>
+      </c>
+      <c r="C290">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A292" s="16">
+        <v>1300</v>
+      </c>
+      <c r="B292" t="s">
+        <v>181</v>
+      </c>
+      <c r="C292">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A293" s="16">
+        <v>1301</v>
+      </c>
+      <c r="B293" t="s">
+        <v>2870</v>
+      </c>
+      <c r="C293">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A294" s="16">
+        <v>1302</v>
+      </c>
+      <c r="B294" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C294">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A295" s="16">
+        <v>1303</v>
+      </c>
+      <c r="B295" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C295">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A296" s="16">
+        <v>1304</v>
+      </c>
+      <c r="B296" t="s">
+        <v>2872</v>
+      </c>
+      <c r="C296">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A297" s="16">
+        <v>1305</v>
+      </c>
+      <c r="B297" t="s">
+        <v>2833</v>
+      </c>
+      <c r="C297">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A298" s="16">
+        <v>1306</v>
+      </c>
+      <c r="B298" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C298">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A299" s="16">
+        <v>1307</v>
+      </c>
+      <c r="B299" t="s">
+        <v>2772</v>
+      </c>
+      <c r="C299">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A300" s="16">
+        <v>1308</v>
+      </c>
+      <c r="B300" t="s">
+        <v>2874</v>
+      </c>
+      <c r="C300">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A301" s="16">
+        <v>1309</v>
+      </c>
+      <c r="B301" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C301">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A302" s="16">
+        <v>1310</v>
+      </c>
+      <c r="B302" t="s">
+        <v>2875</v>
+      </c>
+      <c r="C302">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A303" s="16">
+        <v>1311</v>
+      </c>
+      <c r="B303" t="s">
+        <v>2876</v>
+      </c>
+      <c r="C303">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A304" s="16">
+        <v>1312</v>
+      </c>
+      <c r="B304" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C304">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A305" s="16">
+        <v>1313</v>
+      </c>
+      <c r="B305" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C305">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A306" s="16">
+        <v>1314</v>
+      </c>
+      <c r="B306" t="s">
+        <v>2879</v>
+      </c>
+      <c r="C306">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A307" s="16">
+        <v>1315</v>
+      </c>
+      <c r="B307" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C307">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A308" s="16">
+        <v>1316</v>
+      </c>
+      <c r="B308" t="s">
+        <v>2881</v>
+      </c>
+      <c r="C308">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A309" s="16">
+        <v>1317</v>
+      </c>
+      <c r="B309" t="s">
+        <v>2882</v>
+      </c>
+      <c r="C309">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A310" s="16">
+        <v>1318</v>
+      </c>
+      <c r="B310" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C310">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A312" s="16">
+        <v>1400</v>
+      </c>
+      <c r="B312" t="s">
+        <v>2884</v>
+      </c>
+      <c r="C312">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A313" s="16">
+        <v>1401</v>
+      </c>
+      <c r="B313" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C313">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A314" s="16">
+        <v>1402</v>
+      </c>
+      <c r="B314" t="s">
+        <v>2886</v>
+      </c>
+      <c r="C314">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A315" s="16">
+        <v>1403</v>
+      </c>
+      <c r="B315" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C315">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A316" s="16">
+        <v>1404</v>
+      </c>
+      <c r="B316" t="s">
+        <v>2888</v>
+      </c>
+      <c r="C316">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A317" s="16">
+        <v>1405</v>
+      </c>
+      <c r="B317" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C317">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A318" s="16">
+        <v>1406</v>
+      </c>
+      <c r="B318" t="s">
+        <v>2890</v>
+      </c>
+      <c r="C318">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A319" s="16">
+        <v>1407</v>
+      </c>
+      <c r="B319" t="s">
+        <v>2891</v>
+      </c>
+      <c r="C319">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A320" s="16">
+        <v>1408</v>
+      </c>
+      <c r="B320" t="s">
+        <v>2892</v>
+      </c>
+      <c r="C320">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A321" s="16">
+        <v>1409</v>
+      </c>
+      <c r="B321" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C321">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A322" s="16">
+        <v>1410</v>
+      </c>
+      <c r="B322" t="s">
+        <v>2894</v>
+      </c>
+      <c r="C322">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A323" s="16">
+        <v>1411</v>
+      </c>
+      <c r="B323" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C323">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A324" s="16">
+        <v>1412</v>
+      </c>
+      <c r="B324" t="s">
+        <v>2861</v>
+      </c>
+      <c r="C324">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A325" s="16">
+        <v>1413</v>
+      </c>
+      <c r="B325" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C325">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A326" s="16">
+        <v>1414</v>
+      </c>
+      <c r="B326" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C326">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A327" s="16">
+        <v>1415</v>
+      </c>
+      <c r="B327" t="s">
+        <v>2896</v>
+      </c>
+      <c r="C327">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A328" s="16">
+        <v>1416</v>
+      </c>
+      <c r="B328" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C328">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A329" s="16">
+        <v>1417</v>
+      </c>
+      <c r="B329" t="s">
+        <v>2897</v>
+      </c>
+      <c r="C329">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A330" s="16">
+        <v>1418</v>
+      </c>
+      <c r="B330" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C330">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A331" s="16">
+        <v>1419</v>
+      </c>
+      <c r="B331" t="s">
+        <v>2899</v>
+      </c>
+      <c r="C331">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A333" s="16">
+        <v>1500</v>
+      </c>
+      <c r="B333" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C333">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A334" s="16">
+        <v>1501</v>
+      </c>
+      <c r="B334" t="s">
+        <v>2900</v>
+      </c>
+      <c r="C334">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A335" s="16">
+        <v>1502</v>
+      </c>
+      <c r="B335" t="s">
+        <v>2901</v>
+      </c>
+      <c r="C335">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A336" s="16">
+        <v>1503</v>
+      </c>
+      <c r="B336" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C336">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A337" s="16">
+        <v>1504</v>
+      </c>
+      <c r="B337" t="s">
+        <v>2903</v>
+      </c>
+      <c r="C337">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A338" s="16">
+        <v>1505</v>
+      </c>
+      <c r="B338" t="s">
+        <v>2904</v>
+      </c>
+      <c r="C338">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A339" s="16">
+        <v>1506</v>
+      </c>
+      <c r="B339" t="s">
+        <v>2905</v>
+      </c>
+      <c r="C339">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A340" s="16">
+        <v>1507</v>
+      </c>
+      <c r="B340" t="s">
+        <v>2906</v>
+      </c>
+      <c r="C340">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A341" s="16">
+        <v>1508</v>
+      </c>
+      <c r="B341" t="s">
+        <v>2907</v>
+      </c>
+      <c r="C341">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A342" s="16">
+        <v>1509</v>
+      </c>
+      <c r="B342" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C342">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A344" s="16">
+        <v>1600</v>
+      </c>
+      <c r="B344" t="s">
+        <v>2920</v>
+      </c>
+      <c r="C344">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A345" s="16">
+        <v>1601</v>
+      </c>
+      <c r="B345" t="s">
+        <v>2910</v>
+      </c>
+      <c r="C345">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A346" s="16">
+        <v>1602</v>
+      </c>
+      <c r="B346" t="s">
+        <v>2870</v>
+      </c>
+      <c r="C346">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A347" s="16">
+        <v>1603</v>
+      </c>
+      <c r="B347" t="s">
+        <v>2911</v>
+      </c>
+      <c r="C347">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A348" s="16">
+        <v>1604</v>
+      </c>
+      <c r="B348" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C348">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A349" s="16">
+        <v>1605</v>
+      </c>
+      <c r="B349" t="s">
+        <v>2837</v>
+      </c>
+      <c r="C349">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A350" s="16">
+        <v>1606</v>
+      </c>
+      <c r="B350" t="s">
+        <v>2913</v>
+      </c>
+      <c r="C350">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A351" s="16">
+        <v>1607</v>
+      </c>
+      <c r="B351" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C351">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A352" s="16">
+        <v>1608</v>
+      </c>
+      <c r="B352" t="s">
+        <v>2915</v>
+      </c>
+      <c r="C352">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A353" s="16">
+        <v>1609</v>
+      </c>
+      <c r="B353" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C353">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A354" s="16">
+        <v>1610</v>
+      </c>
+      <c r="B354" t="s">
+        <v>2917</v>
+      </c>
+      <c r="C354">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A355" s="16">
+        <v>1611</v>
+      </c>
+      <c r="B355" t="s">
+        <v>2918</v>
+      </c>
+      <c r="C355">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A356" s="16">
+        <v>1612</v>
+      </c>
+      <c r="B356" t="s">
+        <v>2919</v>
+      </c>
+      <c r="C356">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A358" s="16">
+        <v>1700</v>
+      </c>
+      <c r="B358" t="s">
+        <v>2921</v>
+      </c>
+      <c r="C358">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A359" s="16">
+        <v>1701</v>
+      </c>
+      <c r="B359" t="s">
+        <v>2922</v>
+      </c>
+      <c r="C359">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A360" s="16">
+        <v>1702</v>
+      </c>
+      <c r="B360" t="s">
+        <v>2923</v>
+      </c>
+      <c r="C360">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A362" s="16">
+        <v>1800</v>
+      </c>
+      <c r="B362" t="s">
+        <v>2924</v>
+      </c>
+      <c r="C362">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A363" s="16">
+        <v>1801</v>
+      </c>
+      <c r="B363" t="s">
+        <v>2925</v>
+      </c>
+      <c r="C363">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A364" s="16">
+        <v>1802</v>
+      </c>
+      <c r="B364" t="s">
+        <v>2926</v>
+      </c>
+      <c r="C364">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A365" s="16">
+        <v>1803</v>
+      </c>
+      <c r="B365" t="s">
+        <v>2927</v>
+      </c>
+      <c r="C365">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A366" s="16">
+        <v>1804</v>
+      </c>
+      <c r="B366" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C366">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A367" s="16">
+        <v>1805</v>
+      </c>
+      <c r="B367" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C367">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A368" s="16">
+        <v>1806</v>
+      </c>
+      <c r="B368" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C368">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A369" s="16">
+        <v>1807</v>
+      </c>
+      <c r="B369" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C369">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A370" s="16">
+        <v>1808</v>
+      </c>
+      <c r="B370" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C370">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A371" s="16">
+        <v>1809</v>
+      </c>
+      <c r="B371" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C371">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A372" s="16">
+        <v>1810</v>
+      </c>
+      <c r="B372" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C372">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A373" s="16">
+        <v>1811</v>
+      </c>
+      <c r="B373" t="s">
+        <v>2935</v>
+      </c>
+      <c r="C373">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A374" s="16">
+        <v>1812</v>
+      </c>
+      <c r="B374" t="s">
+        <v>2936</v>
+      </c>
+      <c r="C374">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A376" s="16">
+        <v>1900</v>
+      </c>
+      <c r="B376" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C376">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A377" s="16">
+        <v>1901</v>
+      </c>
+      <c r="B377" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C377">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A378" s="16">
+        <v>1902</v>
+      </c>
+      <c r="B378" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C378">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A379" s="16">
+        <v>1903</v>
+      </c>
+      <c r="B379" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C379">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A380" s="16">
+        <v>1904</v>
+      </c>
+      <c r="B380" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C380">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A381" s="16">
+        <v>1905</v>
+      </c>
+      <c r="B381" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C381">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A382" s="16">
+        <v>1906</v>
+      </c>
+      <c r="B382" t="s">
+        <v>2943</v>
+      </c>
+      <c r="C382">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A383" s="16">
+        <v>1907</v>
+      </c>
+      <c r="B383" t="s">
+        <v>2944</v>
+      </c>
+      <c r="C383">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A384" s="16">
+        <v>1908</v>
+      </c>
+      <c r="B384" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C384">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A385" s="16">
+        <v>1909</v>
+      </c>
+      <c r="B385" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C385">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A386" s="16">
+        <v>1910</v>
+      </c>
+      <c r="B386" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C386">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A387" s="16">
+        <v>1911</v>
+      </c>
+      <c r="B387" t="s">
+        <v>2855</v>
+      </c>
+      <c r="C387">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="389" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A389" s="16">
+        <v>2000</v>
+      </c>
+      <c r="B389" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C389">
+        <v>2001</v>
+      </c>
+      <c r="I389" s="17"/>
+    </row>
+    <row r="390" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="16">
+        <v>2001</v>
+      </c>
+      <c r="B390" t="s">
+        <v>2947</v>
+      </c>
+      <c r="C390">
+        <v>2002</v>
+      </c>
+      <c r="I390" s="18"/>
+    </row>
+    <row r="391" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="16">
+        <v>2002</v>
+      </c>
+      <c r="B391" t="s">
+        <v>2948</v>
+      </c>
+      <c r="C391">
+        <v>2003</v>
+      </c>
+      <c r="I391" s="19"/>
+    </row>
+    <row r="392" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="16">
+        <v>2003</v>
+      </c>
+      <c r="B392" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C392">
+        <v>2004</v>
+      </c>
+      <c r="I392" s="19"/>
+    </row>
+    <row r="393" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="16">
+        <v>2004</v>
+      </c>
+      <c r="B393" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C393">
+        <v>2005</v>
+      </c>
+      <c r="I393" s="19"/>
+    </row>
+    <row r="394" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="16">
+        <v>2005</v>
+      </c>
+      <c r="B394" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C394">
+        <v>2006</v>
+      </c>
+      <c r="I394" s="19"/>
+    </row>
+    <row r="395" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A395" s="16">
+        <v>2006</v>
+      </c>
+      <c r="B395" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C395">
+        <v>2007</v>
+      </c>
+      <c r="I395" s="19"/>
+    </row>
+    <row r="396" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A396" s="16">
+        <v>2007</v>
+      </c>
+      <c r="B396" t="s">
+        <v>2953</v>
+      </c>
+      <c r="C396">
+        <v>2008</v>
+      </c>
+      <c r="I396" s="19"/>
+    </row>
+    <row r="397" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A397" s="16">
+        <v>2008</v>
+      </c>
+      <c r="B397" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C397">
+        <v>2009</v>
+      </c>
+      <c r="I397" s="19"/>
+    </row>
+    <row r="398" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A398" s="16">
+        <v>2009</v>
+      </c>
+      <c r="B398" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C398">
+        <v>2010</v>
+      </c>
+      <c r="I398" s="19"/>
+    </row>
+    <row r="399" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A399" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B399" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C399">
+        <v>2011</v>
+      </c>
+      <c r="I399" s="19"/>
+    </row>
+    <row r="400" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A400" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B400" t="s">
+        <v>2957</v>
+      </c>
+      <c r="C400">
+        <v>2012</v>
+      </c>
+      <c r="I400" s="19"/>
+    </row>
+    <row r="401" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A401" s="16">
+        <v>2012</v>
+      </c>
+      <c r="B401" t="s">
+        <v>2958</v>
+      </c>
+      <c r="C401">
+        <v>2013</v>
+      </c>
+      <c r="I401" s="19"/>
+    </row>
+    <row r="402" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A402" s="16">
+        <v>2013</v>
+      </c>
+      <c r="B402" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C402">
+        <v>2000</v>
+      </c>
+      <c r="I402" s="19"/>
+    </row>
+    <row r="403" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I403" s="20"/>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A404" s="16">
+        <v>2100</v>
+      </c>
+      <c r="B404" t="s">
+        <v>2808</v>
+      </c>
+      <c r="C404">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A405" s="16">
+        <v>2101</v>
+      </c>
+      <c r="B405" t="s">
+        <v>2960</v>
+      </c>
+      <c r="C405">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A406" s="16">
+        <v>2102</v>
+      </c>
+      <c r="B406" t="s">
+        <v>2961</v>
+      </c>
+      <c r="C406">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A407" s="16">
+        <v>2103</v>
+      </c>
+      <c r="B407" t="s">
+        <v>2962</v>
+      </c>
+      <c r="C407">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A408" s="16">
+        <v>2104</v>
+      </c>
+      <c r="B408" t="s">
+        <v>2963</v>
+      </c>
+      <c r="C408">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A409" s="16">
+        <v>2105</v>
+      </c>
+      <c r="B409" t="s">
+        <v>2964</v>
+      </c>
+      <c r="C409">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A410" s="16">
+        <v>2106</v>
+      </c>
+      <c r="B410" t="s">
+        <v>2965</v>
+      </c>
+      <c r="C410">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A411" s="16">
+        <v>2107</v>
+      </c>
+      <c r="B411" t="s">
+        <v>2966</v>
+      </c>
+      <c r="C411">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A412" s="16">
+        <v>2108</v>
+      </c>
+      <c r="B412" t="s">
+        <v>2967</v>
+      </c>
+      <c r="C412">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A413" s="16">
+        <v>2109</v>
+      </c>
+      <c r="B413" t="s">
+        <v>2968</v>
+      </c>
+      <c r="C413">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A414" s="16">
+        <v>2110</v>
+      </c>
+      <c r="B414" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C414">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A415" s="16">
+        <v>2111</v>
+      </c>
+      <c r="B415" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C415">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A417" s="16">
+        <v>2200</v>
+      </c>
+      <c r="B417" t="s">
+        <v>728</v>
+      </c>
+      <c r="C417">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A418" s="16">
+        <v>2201</v>
+      </c>
+      <c r="B418" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C418">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A419" s="16">
+        <v>2202</v>
+      </c>
+      <c r="B419" t="s">
+        <v>2971</v>
+      </c>
+      <c r="C419">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A420" s="16">
+        <v>2203</v>
+      </c>
+      <c r="B420" t="s">
+        <v>2972</v>
+      </c>
+      <c r="C420">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A422" s="16">
+        <v>2300</v>
+      </c>
+      <c r="B422" t="s">
+        <v>2973</v>
+      </c>
+      <c r="C422">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A423" s="16">
+        <v>2301</v>
+      </c>
+      <c r="B423" t="s">
+        <v>2974</v>
+      </c>
+      <c r="C423">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A424" s="16">
+        <v>2302</v>
+      </c>
+      <c r="B424" t="s">
+        <v>2975</v>
+      </c>
+      <c r="C424">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A425" s="16">
+        <v>2303</v>
+      </c>
+      <c r="B425" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C425">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A426" s="16">
+        <v>2304</v>
+      </c>
+      <c r="B426" t="s">
+        <v>2977</v>
+      </c>
+      <c r="C426">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A427" s="16">
+        <v>2305</v>
+      </c>
+      <c r="B427" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C427">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A428" s="16">
+        <v>2306</v>
+      </c>
+      <c r="B428" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C428">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A430" s="16">
+        <v>2400</v>
+      </c>
+      <c r="B430" t="s">
+        <v>2980</v>
+      </c>
+      <c r="C430">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A431" s="16">
+        <v>2401</v>
+      </c>
+      <c r="B431" t="s">
+        <v>2981</v>
+      </c>
+      <c r="C431">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A432" s="16">
+        <v>2402</v>
+      </c>
+      <c r="B432" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C432">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A433" s="16">
+        <v>2403</v>
+      </c>
+      <c r="B433" t="s">
+        <v>2983</v>
+      </c>
+      <c r="C433">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A434" s="16">
+        <v>2404</v>
+      </c>
+      <c r="B434" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C434">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A435" s="16">
+        <v>2405</v>
+      </c>
+      <c r="B435" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C435">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A436" s="16">
+        <v>2406</v>
+      </c>
+      <c r="B436" t="s">
+        <v>2986</v>
+      </c>
+      <c r="C436">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A437" s="16">
+        <v>2407</v>
+      </c>
+      <c r="B437" t="s">
+        <v>2987</v>
+      </c>
+      <c r="C437">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A438" s="16">
+        <v>2408</v>
+      </c>
+      <c r="B438" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C438">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A440" s="16">
+        <v>2500</v>
+      </c>
+      <c r="B440" t="s">
+        <v>434</v>
+      </c>
+      <c r="C440">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A441" s="16">
+        <v>2501</v>
+      </c>
+      <c r="B441" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C441">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A442" s="16">
+        <v>2502</v>
+      </c>
+      <c r="B442" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C442">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A443" s="16">
+        <v>2503</v>
+      </c>
+      <c r="B443" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C443">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A444" s="16">
+        <v>2504</v>
+      </c>
+      <c r="B444" t="s">
+        <v>2991</v>
+      </c>
+      <c r="C444">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A445" s="16">
+        <v>2505</v>
+      </c>
+      <c r="B445" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C445">
+        <v>2500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B356" r:id="rId1" display="https://ditu.so.com/?type=busdetail&amp;lineid=7891794882d25225&amp;index=12&amp;src=onebox"/>
+    <hyperlink ref="B420" r:id="rId2" display="https://ditu.so.com/?type=busdetail&amp;lineid=f6adebf3ac85f1cf&amp;index=3&amp;src=onebox"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+</worksheet>
 </file>